--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="90">
   <si>
     <t>Path</t>
   </si>
@@ -227,6 +227,10 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
     <t>identifies the meaning of the extension</t>
   </si>
   <si>
@@ -246,7 +250,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -256,6 +260,10 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -284,10 +292,6 @@
   </si>
   <si>
     <t>an example of a complex extension - extension string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
   </si>
   <si>
     <t>http://www.fhir.org/guides/test3/StructureDefinition/extension-complex</t>
@@ -892,7 +896,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>50</v>
@@ -994,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>37</v>
@@ -1196,7 +1200,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>50</v>
@@ -1398,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>50</v>
@@ -1429,16 +1433,16 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1488,7 +1492,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -1503,12 +1507,12 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1531,13 +1535,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1588,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1600,15 +1604,15 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1631,16 +1635,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1690,7 +1694,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -1705,12 +1709,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1733,13 +1737,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1766,13 +1770,13 @@
         <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>37</v>
@@ -1790,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1802,10 +1806,10 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -1813,7 +1817,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1838,10 +1842,10 @@
         <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1904,7 +1908,7 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>37</v>
@@ -2106,7 +2110,7 @@
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>50</v>
@@ -2308,7 +2312,7 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>50</v>
@@ -2339,16 +2343,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2398,7 +2402,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2413,12 +2417,12 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2441,13 +2445,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2498,7 +2502,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2510,15 +2514,15 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2541,16 +2545,16 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2558,7 +2562,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>37</v>
@@ -2600,7 +2604,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -2615,12 +2619,12 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2646,10 +2650,10 @@
         <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2700,7 +2704,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -2712,15 +2716,15 @@
         <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2743,16 +2747,16 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -2760,7 +2764,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>37</v>
@@ -2802,7 +2806,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -2817,12 +2821,12 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2845,13 +2849,13 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2902,7 +2906,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -2914,10 +2918,10 @@
         <v>37</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
